--- a/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/存货.xlsx
+++ b/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/存货.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>477.56261</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1107.72135</v>
-      </c>
-      <c r="D2" t="n">
-        <v>97.68017</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.02903</v>
-      </c>
-      <c r="F2" t="n">
-        <v>41.49559</v>
-      </c>
-      <c r="G2" t="n">
-        <v>591.43186</v>
-      </c>
-      <c r="H2" t="n">
-        <v>148.93882</v>
-      </c>
-      <c r="I2" t="n">
-        <v>232.04546</v>
-      </c>
-      <c r="J2" t="n">
-        <v>47.53174</v>
-      </c>
-      <c r="K2" t="n">
-        <v>107.4126</v>
-      </c>
-      <c r="L2" t="n">
-        <v>9918.26922</v>
-      </c>
-      <c r="M2" t="n">
-        <v>15.72897</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.25526</v>
-      </c>
-      <c r="O2" t="n">
-        <v>633.6721199999999</v>
-      </c>
-      <c r="P2" t="n">
-        <v>332.13889</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>33.9076</v>
-      </c>
-      <c r="R2" t="n">
-        <v>110.60961</v>
-      </c>
-      <c r="S2" t="n">
-        <v>38.5821</v>
-      </c>
-      <c r="T2" t="n">
-        <v>33.38959</v>
-      </c>
-      <c r="U2" t="n">
-        <v>111.28726</v>
-      </c>
-      <c r="V2" t="n">
-        <v>281.97359</v>
-      </c>
-      <c r="W2" t="n">
-        <v>17.00003</v>
-      </c>
-      <c r="X2" t="n">
-        <v>204.34098</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>170.99506</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>915.75246</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>588.61666</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>81.01567</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>418.06919</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>103.04115</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>614.30518</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>8.95426</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>156.67579</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>161.67637</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>333.83633</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>34.73266</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>90.37102</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>223.75315</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>314.50784</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>891.98487</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>14.1109</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>470.50115</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1242.78846</v>
-      </c>
-      <c r="D3" t="n">
-        <v>119.23039</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.01347</v>
-      </c>
-      <c r="F3" t="n">
-        <v>51.24232</v>
-      </c>
-      <c r="G3" t="n">
-        <v>613.76455</v>
-      </c>
-      <c r="H3" t="n">
-        <v>123.18771</v>
-      </c>
-      <c r="I3" t="n">
-        <v>276.01228</v>
-      </c>
-      <c r="J3" t="n">
-        <v>57.52897</v>
-      </c>
-      <c r="K3" t="n">
-        <v>125.75267</v>
-      </c>
-      <c r="L3" t="n">
-        <v>11007.77461</v>
-      </c>
-      <c r="M3" t="n">
-        <v>20.41669</v>
-      </c>
-      <c r="N3" t="n">
-        <v>28.17674</v>
-      </c>
-      <c r="O3" t="n">
-        <v>650.59678</v>
-      </c>
-      <c r="P3" t="n">
-        <v>379.23802</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>31.28573</v>
-      </c>
-      <c r="R3" t="n">
-        <v>127.42212</v>
-      </c>
-      <c r="S3" t="n">
-        <v>46.60546</v>
-      </c>
-      <c r="T3" t="n">
-        <v>30.4532</v>
-      </c>
-      <c r="U3" t="n">
-        <v>119.87755</v>
-      </c>
-      <c r="V3" t="n">
-        <v>632.7267000000001</v>
-      </c>
-      <c r="W3" t="n">
-        <v>15.45782</v>
-      </c>
-      <c r="X3" t="n">
-        <v>202.44872</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>184.95422</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1020.72641</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>661.48447</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>92.06429</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>379.17532</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>96.73793999999999</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>618.8957799999999</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>10.60574</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>194.94511</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>187.02273</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>371.29788</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>33.77657</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>108.61298</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>266.02099</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>341.98618</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>960.4440499999999</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>14.06467</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>485.28883</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1344.82718</v>
-      </c>
-      <c r="D4" t="n">
-        <v>118.07</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.01356</v>
-      </c>
-      <c r="F4" t="n">
-        <v>49.74977</v>
-      </c>
-      <c r="G4" t="n">
-        <v>632.39813</v>
-      </c>
-      <c r="H4" t="n">
-        <v>114.37798</v>
-      </c>
-      <c r="I4" t="n">
-        <v>295.8527</v>
-      </c>
-      <c r="J4" t="n">
-        <v>58.90651</v>
-      </c>
-      <c r="K4" t="n">
-        <v>137.46152</v>
-      </c>
-      <c r="L4" t="n">
-        <v>11339.91227</v>
-      </c>
-      <c r="M4" t="n">
-        <v>20.33958</v>
-      </c>
-      <c r="N4" t="n">
-        <v>35.69558</v>
-      </c>
-      <c r="O4" t="n">
-        <v>695.30204</v>
-      </c>
-      <c r="P4" t="n">
-        <v>384.95299</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>27.19013</v>
-      </c>
-      <c r="R4" t="n">
-        <v>114.97193</v>
-      </c>
-      <c r="S4" t="n">
-        <v>46.00696</v>
-      </c>
-      <c r="T4" t="n">
-        <v>29.84101</v>
-      </c>
-      <c r="U4" t="n">
-        <v>117.72649</v>
-      </c>
-      <c r="V4" t="n">
-        <v>702.12737</v>
-      </c>
-      <c r="W4" t="n">
-        <v>17.67631</v>
-      </c>
-      <c r="X4" t="n">
-        <v>216.60534</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>202.11444</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1071.77396</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>656.1999</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>85.68809</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>388.48516</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>109.30927</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>605.68342</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>10.7159</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>202.10178</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>189.38833</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>373.0604</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>34.40974</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>118.04932</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>295.85681</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>335.395</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>898.36889</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>15.66174</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
